--- a/Tables/tot_tut_pres.xlsx
+++ b/Tables/tot_tut_pres.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\Overleaf\Donde2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6666AD-0F62-4861-BB0F-457AC10E9A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80D150A-5EAB-435F-AFC8-BCB6D076BA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1119F9E7-C0AD-4EB5-B95A-549D4A6138CF}"/>
+    <workbookView xWindow="3705" yWindow="3240" windowWidth="21600" windowHeight="11175" xr2:uid="{1119F9E7-C0AD-4EB5-B95A-549D4A6138CF}"/>
   </bookViews>
   <sheets>
     <sheet name="tot_tut_pres1" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Observations</t>
   </si>
@@ -55,6 +55,24 @@
   </si>
   <si>
     <t>% (1-Refinance)</t>
+  </si>
+  <si>
+    <t>ASB $:= \E[Y_0 | C=1]-\E[Y_0 | C=0]$</t>
+  </si>
+  <si>
+    <t>ASL $:= \E[Y_1 | C=1]-\E[Y_1 | C=0]$</t>
+  </si>
+  <si>
+    <t>ToT $:= \E[Y_1 - Y_0 | C=1]$</t>
+  </si>
+  <si>
+    <t>TuT $:= \E[Y_1 - Y_0 | C=0]$</t>
+  </si>
+  <si>
+    <t>ASG := ToT-TuT</t>
+  </si>
+  <si>
+    <t>APR</t>
   </si>
 </sst>
 </file>
@@ -78,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -126,11 +144,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -150,6 +177,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -178,7 +223,7 @@
       <sheetName val="tot_tut"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
+      <sheetData sheetId="0">
         <row r="2">
           <cell r="A2" t="str">
             <v/>
@@ -197,9 +242,6 @@
           </cell>
         </row>
         <row r="8">
-          <cell r="A8" t="str">
-            <v>ToT</v>
-          </cell>
           <cell r="B8" t="str">
             <v>132.7*</v>
           </cell>
@@ -231,9 +273,6 @@
           </cell>
         </row>
         <row r="11">
-          <cell r="A11" t="str">
-            <v>TuT</v>
-          </cell>
           <cell r="B11" t="str">
             <v>24.0***</v>
           </cell>
@@ -265,9 +304,6 @@
           </cell>
         </row>
         <row r="20">
-          <cell r="A20" t="str">
-            <v>ToT-TuT</v>
-          </cell>
           <cell r="B20" t="str">
             <v>108.7</v>
           </cell>
@@ -299,9 +335,6 @@
           </cell>
         </row>
         <row r="23">
-          <cell r="A23" t="str">
-            <v>ASB</v>
-          </cell>
           <cell r="B23" t="str">
             <v>-122.3*</v>
           </cell>
@@ -330,9 +363,6 @@
           </cell>
         </row>
         <row r="26">
-          <cell r="A26" t="str">
-            <v>ASL</v>
-          </cell>
           <cell r="B26" t="str">
             <v>-13.6</v>
           </cell>
@@ -372,6 +402,34 @@
           </cell>
           <cell r="E29" t="str">
             <v>6304</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>H_0 : ToT-TuT=0</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>0.13</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>0.78</v>
+          </cell>
+          <cell r="D33" t="str">
+            <v>0.12</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>H_0 : ToT-TuT$\geq$ 0</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>0.063</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>0.39</v>
+          </cell>
+          <cell r="D34" t="str">
+            <v>0.062</v>
           </cell>
         </row>
       </sheetData>
@@ -677,30 +735,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44673701-F010-4C6C-A193-E9EAA3086987}">
-  <dimension ref="A2:C16"/>
+  <dimension ref="A2:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C15"/>
+      <selection activeCell="D17" sqref="A2:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="str">
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="str">
         <f>[1]tot_tut!A2</f>
         <v/>
       </c>
@@ -712,11 +774,14 @@
         <f>[1]tot_tut!C2</f>
         <v>(2)</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
-        <f>[1]tot_tut!A8</f>
-        <v>ToT</v>
+      <c r="D3" s="5" t="str">
+        <f>[1]tot_tut!D2</f>
+        <v>(3)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="B4" s="6" t="str">
         <f>[1]tot_tut!C8</f>
@@ -726,9 +791,13 @@
         <f>[1]tot_tut!D8</f>
         <v>38.7*</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
+      <c r="D4" s="6" t="str">
+        <f>[1]tot_tut!B8</f>
+        <v>132.7*</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="str">
         <f>[1]tot_tut!A9</f>
         <v/>
       </c>
@@ -740,11 +809,14 @@
         <f>[1]tot_tut!D9</f>
         <v>(21.5)</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
-        <f>[1]tot_tut!A11</f>
-        <v>TuT</v>
+      <c r="D5" s="6" t="str">
+        <f>[1]tot_tut!B9</f>
+        <v>(67.8)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="B6" s="6" t="str">
         <f>[1]tot_tut!C11</f>
@@ -754,25 +826,32 @@
         <f>[1]tot_tut!D11</f>
         <v>3.98*</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
+      <c r="D6" s="6" t="str">
+        <f>[1]tot_tut!B11</f>
+        <v>24.0***</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="str">
         <f>[1]tot_tut!A12</f>
         <v/>
       </c>
-      <c r="B7" s="6" t="str">
+      <c r="B7" s="10" t="str">
         <f>[1]tot_tut!C12</f>
         <v>(107.8)</v>
       </c>
-      <c r="C7" s="6" t="str">
+      <c r="C7" s="10" t="str">
         <f>[1]tot_tut!D12</f>
         <v>(2.40)</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="str">
-        <f>[1]tot_tut!A20</f>
-        <v>ToT-TuT</v>
+      <c r="D7" s="10" t="str">
+        <f>[1]tot_tut!B12</f>
+        <v>(8.20)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="B8" s="7" t="str">
         <f>[1]tot_tut!C20</f>
@@ -782,9 +861,13 @@
         <f>[1]tot_tut!D20</f>
         <v>34.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
+      <c r="D8" s="7" t="str">
+        <f>[1]tot_tut!B20</f>
+        <v>108.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="str">
         <f>[1]tot_tut!A21</f>
         <v/>
       </c>
@@ -796,11 +879,14 @@
         <f>[1]tot_tut!D21</f>
         <v>(22.5)</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
-        <f>[1]tot_tut!A23</f>
-        <v>ASB</v>
+      <c r="D9" s="6" t="str">
+        <f>[1]tot_tut!B21</f>
+        <v>(70.9)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="B10" s="6" t="str">
         <f>[1]tot_tut!C23</f>
@@ -810,8 +896,13 @@
         <f>[1]tot_tut!D23</f>
         <v>-40.6*</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="6" t="str">
+        <f>[1]tot_tut!B23</f>
+        <v>-122.3*</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
       <c r="B11" s="6" t="str">
         <f>[1]tot_tut!C24</f>
         <v>(1127.5)</v>
@@ -820,11 +911,14 @@
         <f>[1]tot_tut!D24</f>
         <v>(22.2)</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <f>[1]tot_tut!A26</f>
-        <v>ASL</v>
+      <c r="D11" s="6" t="str">
+        <f>[1]tot_tut!B24</f>
+        <v>(70.5)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="B12" s="6" t="str">
         <f>[1]tot_tut!C26</f>
@@ -834,8 +928,13 @@
         <f>[1]tot_tut!D26</f>
         <v>-5.90</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="6" t="str">
+        <f>[1]tot_tut!B26</f>
+        <v>-13.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
       <c r="B13" s="6" t="str">
         <f>[1]tot_tut!C27</f>
         <v>(154.4)</v>
@@ -844,21 +943,68 @@
         <f>[1]tot_tut!D27</f>
         <v>(4.29)</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="D13" s="6" t="str">
+        <f>[1]tot_tut!B27</f>
+        <v>(15.9)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="9" t="str">
+      <c r="B15" s="7" t="str">
         <f>[1]tot_tut!C29</f>
         <v>6304</v>
       </c>
-      <c r="C15" s="9" t="str">
+      <c r="C15" s="7" t="str">
         <f>[1]tot_tut!D29</f>
         <v>6304</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="D15" s="7" t="str">
+        <f>[1]tot_tut!B29</f>
+        <v>6304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="str">
+        <f>[1]tot_tut!A33</f>
+        <v>H_0 : ToT-TuT=0</v>
+      </c>
+      <c r="B16" s="6" t="str">
+        <f>[1]tot_tut!C33</f>
+        <v>0.78</v>
+      </c>
+      <c r="C16" s="6" t="str">
+        <f>[1]tot_tut!D33</f>
+        <v>0.12</v>
+      </c>
+      <c r="D16" s="6" t="str">
+        <f>[1]tot_tut!B33</f>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="str">
+        <f>[1]tot_tut!A34</f>
+        <v>H_0 : ToT-TuT$\geq$ 0</v>
+      </c>
+      <c r="B17" s="5" t="str">
+        <f>[1]tot_tut!C34</f>
+        <v>0.39</v>
+      </c>
+      <c r="C17" s="5" t="str">
+        <f>[1]tot_tut!D34</f>
+        <v>0.062</v>
+      </c>
+      <c r="D17" s="5" t="str">
+        <f>[1]tot_tut!B34</f>
+        <v>0.063</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -869,7 +1015,7 @@
   <dimension ref="A2:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E15"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,9 +1065,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
-        <f>[1]tot_tut!A8</f>
-        <v>ToT</v>
+      <c r="A4" t="s">
+        <v>7</v>
       </c>
       <c r="B4" s="6" t="str">
         <f>[1]tot_tut!B8</f>
@@ -963,9 +1108,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
-        <f>[1]tot_tut!A11</f>
-        <v>TuT</v>
+      <c r="A6" t="s">
+        <v>8</v>
       </c>
       <c r="B6" s="6" t="str">
         <f>[1]tot_tut!B11</f>
@@ -1007,9 +1151,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="str">
-        <f>[1]tot_tut!A20</f>
-        <v>ToT-TuT</v>
+      <c r="A8" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B8" s="7" t="str">
         <f>[1]tot_tut!B20</f>
@@ -1051,9 +1194,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
-        <f>[1]tot_tut!A23</f>
-        <v>ASB</v>
+      <c r="A10" t="s">
+        <v>5</v>
       </c>
       <c r="B10" s="6" t="str">
         <f>[1]tot_tut!B23</f>
@@ -1091,9 +1233,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <f>[1]tot_tut!A26</f>
-        <v>ASL</v>
+      <c r="A12" t="s">
+        <v>6</v>
       </c>
       <c r="B12" s="6" t="str">
         <f>[1]tot_tut!B26</f>
